--- a/results_sum_south.xlsx
+++ b/results_sum_south.xlsx
@@ -411,13 +411,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.780955633192987</v>
+        <v>2.780955633192985</v>
       </c>
       <c r="C2">
-        <v>3.016712171730232</v>
+        <v>3.01671217173023</v>
       </c>
       <c r="D2">
-        <v>3.665049351527195</v>
+        <v>3.665049351527205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,13 +425,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.149568289956274</v>
+        <v>1.149568289956273</v>
       </c>
       <c r="C3">
         <v>1.247023365333043</v>
       </c>
       <c r="D3">
-        <v>1.515053311001685</v>
+        <v>1.515053311001686</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>1.62013876776532</v>
       </c>
       <c r="C4">
-        <v>0.697570469628302</v>
+        <v>0.6975704696283015</v>
       </c>
       <c r="D4">
-        <v>0.1063787879846649</v>
+        <v>0.106378787984665</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -467,13 +467,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2871572344403313</v>
+        <v>0.287157234440329</v>
       </c>
       <c r="C6">
-        <v>0.09775037647492957</v>
+        <v>0.09775037647492994</v>
       </c>
       <c r="D6">
-        <v>0.0685538592853938</v>
+        <v>0.06855385928539187</v>
       </c>
     </row>
   </sheetData>

--- a/results_sum_south.xlsx
+++ b/results_sum_south.xlsx
@@ -411,13 +411,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.780955633192985</v>
+        <v>2.780955633192987</v>
       </c>
       <c r="C2">
-        <v>3.01671217173023</v>
+        <v>3.016712171730232</v>
       </c>
       <c r="D2">
-        <v>3.665049351527205</v>
+        <v>3.665049351527195</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -425,13 +425,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.149568289956273</v>
+        <v>1.149568289956274</v>
       </c>
       <c r="C3">
         <v>1.247023365333043</v>
       </c>
       <c r="D3">
-        <v>1.515053311001686</v>
+        <v>1.515053311001685</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>1.62013876776532</v>
       </c>
       <c r="C4">
-        <v>0.6975704696283015</v>
+        <v>0.697570469628302</v>
       </c>
       <c r="D4">
-        <v>0.106378787984665</v>
+        <v>0.1063787879846649</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -467,13 +467,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.287157234440329</v>
+        <v>0.2871572344403313</v>
       </c>
       <c r="C6">
-        <v>0.09775037647492994</v>
+        <v>0.09775037647492957</v>
       </c>
       <c r="D6">
-        <v>0.06855385928539187</v>
+        <v>0.0685538592853938</v>
       </c>
     </row>
   </sheetData>
